--- a/aichan/547551804179406497_2021-07-15_13-00-39.xlsx
+++ b/aichan/547551804179406497_2021-07-15_13-00-39.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>4951742759</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-07-20 16:51:52</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44397.70268518518</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -618,10 +632,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-07-19 11:31:51</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44396.48045138889</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -681,10 +693,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:20:18</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44395.55576388889</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -760,10 +770,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-07-17 22:56:05</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44394.95561342593</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -827,10 +835,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-07-17 16:10:57</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44394.67427083333</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -898,10 +904,8 @@
           <t>4928370839</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:54:17</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44394.53769675926</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -991,10 +995,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-07-17 01:04:56</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44394.04509259259</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1058,10 +1060,8 @@
           <t>4913618185</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-07-16 21:24:17</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44393.89186342592</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1125,10 +1125,8 @@
           <t>4913616274</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-07-16 21:12:44</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44393.88384259259</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1188,10 +1186,8 @@
           <t>4913616274</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:51:33</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44393.82746527778</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1263,10 +1259,8 @@
           <t>4913616274</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:07:21</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44393.79677083333</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1326,10 +1320,8 @@
           <t>4913618185</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:14:47</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44393.7602662037</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1401,10 +1393,8 @@
           <t>4913616274</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-07-16 17:21:38</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44393.72335648148</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1476,10 +1466,8 @@
           <t>4913616274</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-07-16 17:13:14</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44393.71752314815</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1543,10 +1531,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-07-16 17:10:04</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44393.71532407407</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1618,10 +1604,8 @@
           <t>4913616274</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-07-16 17:05:54</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44393.71243055556</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1693,10 +1677,8 @@
           <t>4913618185</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-07-16 14:59:53</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44393.62491898148</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1760,10 +1742,8 @@
           <t>4913616274</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-07-16 14:48:42</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44393.61715277778</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1823,10 +1803,8 @@
           <t>4919871227</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-07-16 14:09:44</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44393.5900925926</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1894,10 +1872,8 @@
           <t>4913616274</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-07-16 14:05:11</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44393.58693287037</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1969,10 +1945,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-07-16 11:41:13</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44393.48695601852</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2048,10 +2022,8 @@
           <t>4919872363</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-07-16 10:51:59</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44393.45276620371</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2115,10 +2087,8 @@
           <t>4919871227</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-07-16 10:51:23</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44393.45234953704</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2182,10 +2152,8 @@
           <t>4919866955</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-07-16 10:51:23</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44393.45234953704</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2253,10 +2221,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-07-16 10:49:56</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44393.45134259259</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2324,10 +2290,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-07-16 07:30:44</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44393.31300925926</v>
       </c>
       <c r="I27" t="n">
         <v>7</v>
@@ -2399,10 +2363,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-07-16 06:44:06</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44393.280625</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2466,10 +2428,8 @@
           <t>4918740948</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-07-16 04:58:12</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44393.20708333333</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2541,10 +2501,8 @@
           <t>4918740948</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-07-16 03:57:27</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44393.16489583333</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2611,10 +2569,8 @@
           <t>4918740523</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-07-16 03:56:15</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44393.1640625</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2678,10 +2634,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-07-16 03:37:10</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44393.15081018519</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2757,10 +2711,8 @@
           <t>4918715203</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-07-16 03:31:40</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44393.14699074074</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2824,10 +2776,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-07-16 02:23:43</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44393.09980324074</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2891,10 +2841,8 @@
           <t>4916132113</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-07-16 01:42:10</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44393.07094907408</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -2970,10 +2918,8 @@
           <t>4918084698</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-07-16 00:16:33</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44393.01149305556</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3037,10 +2983,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-07-16 00:13:22</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44393.00928240741</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3108,10 +3052,8 @@
           <t>4916132113</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-07-16 00:01:10</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44393.00081018519</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3179,10 +3121,8 @@
           <t>4916132113</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-07-15 23:51:35</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44392.99415509259</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3258,10 +3198,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-07-15 23:40:15</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44392.98628472222</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3326,10 +3264,8 @@
           <t>4917819534</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-07-15 23:37:20</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44392.98425925926</v>
       </c>
       <c r="I41" t="n">
         <v>1</v>
@@ -3393,10 +3329,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-07-15 23:36:03</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44392.98336805555</v>
       </c>
       <c r="I42" t="n">
         <v>2</v>
@@ -3460,10 +3394,8 @@
           <t>4917547487</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-07-15 23:24:18</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44392.97520833334</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3531,10 +3463,8 @@
           <t>4917634443</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-07-15 23:13:16</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44392.9675462963</v>
       </c>
       <c r="I44" t="n">
         <v>2</v>
@@ -3621,10 +3551,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-07-15 23:03:57</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44392.96107638889</v>
       </c>
       <c r="I45" t="n">
         <v>4</v>
@@ -3690,10 +3618,8 @@
           <t>4917547487</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-07-15 23:01:41</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44392.95950231481</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3757,10 +3683,8 @@
           <t>4917534552</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-07-15 23:00:23</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44392.95859953704</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3825,10 +3749,8 @@
           <t>4917171339</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-07-15 22:13:53</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44392.92630787037</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3904,10 +3826,8 @@
           <t>4913488458</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-07-15 22:12:56</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44392.92564814815</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -3971,10 +3891,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-07-15 21:44:39</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44392.90600694445</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4038,10 +3956,8 @@
           <t>4916667269</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-07-15 21:09:15</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44392.88142361111</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4105,10 +4021,8 @@
           <t>4916092163</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-07-15 21:00:56</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44392.87564814815</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4172,10 +4086,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:55:05</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44392.87158564815</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4243,10 +4155,8 @@
           <t>4913511055</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:53:50</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44392.8707175926</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4314,10 +4224,8 @@
           <t>4913616274</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:47:58</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44392.86664351852</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4382,10 +4290,8 @@
           <t>4913616274</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:29:21</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44392.85371527778</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4461,10 +4367,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:09:28</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44392.8399074074</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4528,10 +4432,8 @@
           <t>4916132113</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:55:05</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44392.82991898148</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4599,10 +4501,8 @@
           <t>4916106377</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:51:42</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44392.82756944445</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4670,10 +4570,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:50:46</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44392.8269212963</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4745,10 +4643,8 @@
           <t>4916092163</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:49:54</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44392.82631944444</v>
       </c>
       <c r="I61" t="n">
         <v>4</v>
@@ -4816,10 +4712,8 @@
           <t>4913616274</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:46:35</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44392.8240162037</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -4879,10 +4773,8 @@
           <t>4915914177</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:24:57</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44392.80899305556</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -4946,10 +4838,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:23:44</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44392.80814814815</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5017,10 +4907,8 @@
           <t>4913501656</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:23:16</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44392.80782407407</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5088,10 +4976,8 @@
           <t>4913503058</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:23:12</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44392.80777777778</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5155,10 +5041,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:22:51</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44392.80753472223</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5222,10 +5106,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:05:41</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44392.79561342593</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5301,10 +5183,8 @@
           <t>4915707960</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-07-15 18:57:21</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44392.78982638889</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5372,10 +5252,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-07-15 18:47:40</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44392.78310185186</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5443,10 +5321,8 @@
           <t>4915620639</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-07-15 18:45:21</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44392.78149305555</v>
       </c>
       <c r="I71" t="n">
         <v>1</v>
@@ -5518,10 +5394,8 @@
           <t>4915578139</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-07-15 18:40:20</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44392.77800925926</v>
       </c>
       <c r="I72" t="n">
         <v>1</v>
@@ -5593,10 +5467,8 @@
           <t>4915370675</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-07-15 18:36:35</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44392.77540509259</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5664,10 +5536,8 @@
           <t>4915552246</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-07-15 18:36:04</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44392.77504629629</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5735,10 +5605,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-07-15 18:28:23</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44392.76971064815</v>
       </c>
       <c r="I75" t="n">
         <v>1</v>
@@ -5802,10 +5670,8 @@
           <t>4915449120</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-07-15 18:22:50</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44392.76585648148</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -5882,10 +5748,8 @@
           <t>4915394927</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-07-15 18:15:32</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44392.76078703703</v>
       </c>
       <c r="I77" t="n">
         <v>1</v>
@@ -5961,10 +5825,8 @@
           <t>4915397870</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-07-15 18:15:18</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44392.760625</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6036,10 +5898,8 @@
           <t>4915370675</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-07-15 18:11:23</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44392.75790509259</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6103,10 +5963,8 @@
           <t>4915330309</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-07-15 18:05:16</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44392.7536574074</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6170,10 +6028,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-07-15 17:53:00</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44392.74513888889</v>
       </c>
       <c r="I81" t="n">
         <v>1</v>
@@ -6241,10 +6097,8 @@
           <t>4915193324</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-07-15 17:47:03</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44392.74100694444</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6316,10 +6170,8 @@
           <t>4915172209</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-07-15 17:43:54</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44392.73881944444</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6387,10 +6239,8 @@
           <t>4915098917</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-07-15 17:33:25</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44392.73153935185</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6462,10 +6312,8 @@
           <t>4913488458</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-07-15 17:32:36</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44392.73097222222</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6537,10 +6385,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-07-15 17:30:59</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44392.72984953703</v>
       </c>
       <c r="I86" t="n">
         <v>2</v>
@@ -6608,10 +6454,8 @@
           <t>4915086231</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-07-15 17:30:07</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44392.72924768519</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6687,10 +6531,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-07-15 17:24:26</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44392.72530092593</v>
       </c>
       <c r="I88" t="n">
         <v>1</v>
@@ -6767,10 +6609,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-07-15 17:18:05</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44392.7208912037</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6838,10 +6678,8 @@
           <t>4914995603</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-07-15 17:16:13</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44392.71959490741</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -6911,10 +6749,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-07-15 17:05:15</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44392.71197916667</v>
       </c>
       <c r="I91" t="n">
         <v>1</v>
@@ -6982,10 +6818,8 @@
           <t>4914909607</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-07-15 17:04:36</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44392.71152777778</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7057,10 +6891,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-07-15 17:02:50</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44392.71030092592</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7124,10 +6956,8 @@
           <t>4914897384</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-07-15 17:02:24</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44392.71</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7195,10 +7025,8 @@
           <t>4914881734</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-07-15 16:59:48</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44392.70819444444</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7274,10 +7102,8 @@
           <t>4914857098</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-07-15 16:56:16</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44392.70574074074</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7349,10 +7175,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-07-15 16:53:30</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44392.70381944445</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7421,10 +7245,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-07-15 16:48:25</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44392.70028935185</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7492,10 +7314,8 @@
           <t>4914793227</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-07-15 16:45:49</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44392.6984837963</v>
       </c>
       <c r="I99" t="n">
         <v>1</v>
@@ -7571,10 +7391,8 @@
           <t>4914738895</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-07-15 16:37:52</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44392.69296296296</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7648,10 +7466,8 @@
           <t>4914738812</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-07-15 16:37:49</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44392.69292824074</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7715,10 +7531,8 @@
           <t>4914737340</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-07-15 16:37:06</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44392.69243055556</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7790,10 +7604,8 @@
           <t>4914733697</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-07-15 16:36:14</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44392.6918287037</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -7865,10 +7677,8 @@
           <t>4914728503</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-07-15 16:35:55</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44392.6916087963</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -7928,10 +7738,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-07-15 16:35:35</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44392.69137731481</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -7995,10 +7803,8 @@
           <t>4913940062</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-07-15 16:31:48</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44392.68875</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8066,10 +7872,8 @@
           <t>4914697178</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-07-15 16:30:05</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44392.68755787037</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8133,10 +7937,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-07-15 16:27:50</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44392.68599537037</v>
       </c>
       <c r="I108" t="n">
         <v>5</v>
@@ -8208,10 +8010,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-07-15 16:24:17</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44392.6835300926</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8279,10 +8079,8 @@
           <t>4914081571</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-07-15 16:22:47</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44392.68248842593</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8354,10 +8152,8 @@
           <t>4914630334</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-07-15 16:19:01</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44392.67987268518</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8425,10 +8221,8 @@
           <t>4914630334</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-07-15 16:18:34</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44392.67956018518</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8496,10 +8290,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-07-15 16:11:59</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44392.67498842593</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8563,10 +8355,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-07-15 16:10:41</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44392.67408564815</v>
       </c>
       <c r="I114" t="n">
         <v>3</v>
@@ -8630,10 +8420,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-07-15 16:03:27</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44392.6690625</v>
       </c>
       <c r="I115" t="n">
         <v>7</v>
@@ -8705,10 +8493,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-07-15 16:03:24</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44392.66902777777</v>
       </c>
       <c r="I116" t="n">
         <v>10</v>
@@ -8780,10 +8566,8 @@
           <t>4913503058</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-07-15 16:02:44</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44392.66856481481</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -8847,10 +8631,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:57:32</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44392.6649537037</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -8922,10 +8704,8 @@
           <t>4913977319</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:54:29</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44392.66283564815</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9001,10 +8781,8 @@
           <t>4914481249</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:53:38</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44392.66224537037</v>
       </c>
       <c r="I120" t="n">
         <v>1</v>
@@ -9068,10 +8846,8 @@
           <t>4913449675</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:52:32</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44392.66148148148</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9135,10 +8911,8 @@
           <t>4914467844</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:51:54</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44392.66104166667</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9202,10 +8976,8 @@
           <t>4914458759</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:49:48</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44392.65958333333</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9281,10 +9053,8 @@
           <t>4913616274</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:47:32</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44392.65800925926</v>
       </c>
       <c r="I124" t="n">
         <v>1</v>
@@ -9360,10 +9130,8 @@
           <t>4914432943</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:46:02</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44392.65696759259</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9435,10 +9203,8 @@
           <t>4914430377</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:44:40</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44392.65601851852</v>
       </c>
       <c r="I126" t="n">
         <v>1</v>
@@ -9502,10 +9268,8 @@
           <t>4914416493</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:42:36</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44392.65458333334</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9573,10 +9337,8 @@
           <t>4914388330</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:38:10</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44392.65150462963</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9644,10 +9406,8 @@
           <t>4914323610</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:37:56</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44392.6513425926</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9719,10 +9479,8 @@
           <t>4913471057</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:35:42</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44392.64979166666</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9798,10 +9556,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:33:47</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44392.64846064815</v>
       </c>
       <c r="I131" t="n">
         <v>1</v>
@@ -9874,10 +9630,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:27:42</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44392.64423611111</v>
       </c>
       <c r="I132" t="n">
         <v>2</v>
@@ -9939,10 +9693,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:27:36</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44392.64416666667</v>
       </c>
       <c r="I133" t="n">
         <v>9</v>
@@ -10002,10 +9754,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:27:30</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44392.64409722222</v>
       </c>
       <c r="I134" t="n">
         <v>2</v>
@@ -10065,10 +9815,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:27:25</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44392.64403935185</v>
       </c>
       <c r="I135" t="n">
         <v>3</v>
@@ -10128,10 +9876,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:27:21</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44392.64399305556</v>
       </c>
       <c r="I136" t="n">
         <v>2</v>
@@ -10191,10 +9937,8 @@
           <t>4914323610</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:26:04</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44392.64310185185</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10258,10 +10002,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:16:49</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44392.63667824074</v>
       </c>
       <c r="I138" t="n">
         <v>1</v>
@@ -10325,10 +10067,8 @@
           <t>4913503058</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:14:48</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44392.63527777778</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10404,10 +10144,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:13:55</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44392.63466435186</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10475,10 +10213,8 @@
           <t>4913719499</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:58:31</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44392.62396990741</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10538,10 +10274,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:55:12</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44392.62166666667</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10609,10 +10343,8 @@
           <t>4914150457</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:54:54</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44392.62145833333</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10680,10 +10412,8 @@
           <t>4914136161</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:52:37</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44392.61987268519</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -10755,10 +10485,8 @@
           <t>4914123805</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:51:23</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44392.6190162037</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -10822,10 +10550,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:50:47</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44392.61859953704</v>
       </c>
       <c r="I146" t="n">
         <v>8</v>
@@ -10889,10 +10615,8 @@
           <t>4914113267</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:49:33</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44392.61774305555</v>
       </c>
       <c r="I147" t="n">
         <v>1</v>
@@ -10968,10 +10692,8 @@
           <t>4914107161</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:47:52</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44392.61657407408</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11035,10 +10757,8 @@
           <t>4914102808</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:47:17</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44392.61616898148</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11106,10 +10826,8 @@
           <t>4914101286</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:46:25</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44392.61556712963</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11173,10 +10891,8 @@
           <t>4914097227</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:46:17</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44392.61547453704</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11240,10 +10956,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:44:27</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44392.61420138889</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11311,10 +11025,8 @@
           <t>4914081571</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:43:18</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44392.61340277778</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11386,10 +11098,8 @@
           <t>4914081402</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:43:12</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44392.61333333333</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11457,10 +11167,8 @@
           <t>4914072097</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:41:21</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44392.61204861111</v>
       </c>
       <c r="I155" t="n">
         <v>1</v>
@@ -11528,10 +11236,8 @@
           <t>4913940062</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:37:34</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44392.6094212963</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11595,10 +11301,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:37:30</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44392.609375</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11662,10 +11366,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:37:09</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44392.60913194445</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -11733,10 +11435,8 @@
           <t>4914037465</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:35:46</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44392.6081712963</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -11812,10 +11512,8 @@
           <t>4913940062</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:35:24</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44392.60791666667</v>
       </c>
       <c r="I160" t="n">
         <v>1</v>
@@ -11883,10 +11581,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:34:33</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44392.60732638889</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -11962,10 +11658,8 @@
           <t>4914024497</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:34:09</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44392.60704861111</v>
       </c>
       <c r="I162" t="n">
         <v>1</v>
@@ -12033,10 +11727,8 @@
           <t>4913719499</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:33:12</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44392.60638888889</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12104,10 +11796,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:32:13</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44392.60570601852</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12171,10 +11861,8 @@
           <t>4913503058</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:30:33</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44392.60454861111</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12238,10 +11926,8 @@
           <t>4914005852</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:29:30</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44392.60381944444</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12313,10 +11999,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:27:48</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44392.60263888889</v>
       </c>
       <c r="I167" t="n">
         <v>1</v>
@@ -12380,10 +12064,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:27:30</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44392.60243055555</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12447,10 +12129,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:26:38</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44392.6018287037</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12526,10 +12206,8 @@
           <t>4913947298</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:26:34</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44392.60178240741</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12593,10 +12271,8 @@
           <t>4913985627</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:25:13</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44392.60084490741</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -12668,10 +12344,8 @@
           <t>4913977319</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:24:55</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44392.60063657408</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -12740,10 +12414,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:24:32</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44392.60037037037</v>
       </c>
       <c r="I173" t="n">
         <v>1</v>
@@ -12803,10 +12475,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:23:24</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44392.59958333334</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -12870,10 +12540,8 @@
           <t>4913963415</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:22:41</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44392.59908564815</v>
       </c>
       <c r="I175" t="n">
         <v>1</v>
@@ -12949,10 +12617,8 @@
           <t>4913961078</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:21:24</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44392.59819444444</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13020,10 +12686,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:20:55</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44392.5978587963</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13099,10 +12763,8 @@
           <t>4913503058</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:20:05</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44392.5972800926</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13178,10 +12840,8 @@
           <t>4913953267</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:20:01</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44392.5972337963</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13261,10 +12921,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:19:34</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44392.5969212963</v>
       </c>
       <c r="I180" t="n">
         <v>14</v>
@@ -13328,10 +12986,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:19:32</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44392.59689814815</v>
       </c>
       <c r="I181" t="n">
         <v>1</v>
@@ -13399,10 +13055,8 @@
           <t>4913947298</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:19:20</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44392.59675925926</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13462,10 +13116,8 @@
           <t>4913950465</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:18:32</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44392.5962037037</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13541,10 +13193,8 @@
           <t>4913503058</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:17:31</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44392.59549768519</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13608,10 +13258,8 @@
           <t>4913940062</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:16:55</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44392.59508101852</v>
       </c>
       <c r="I185" t="n">
         <v>1</v>
@@ -13675,10 +13323,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:16:46</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44392.59497685185</v>
       </c>
       <c r="I186" t="n">
         <v>1</v>
@@ -13746,10 +13392,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:14:10</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44392.5931712963</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -13813,10 +13457,8 @@
           <t>4913719499</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:14:09</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44392.59315972222</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -13884,10 +13526,8 @@
           <t>4913916908</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:13:43</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44392.5928587963</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -13955,10 +13595,8 @@
           <t>4913920953</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:13:39</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44392.5928125</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14034,10 +13672,8 @@
           <t>4913916218</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:13:20</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44392.59259259259</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14105,10 +13741,8 @@
           <t>4913614965</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:13:07</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44392.59244212963</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14176,10 +13810,8 @@
           <t>4913909613</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:12:58</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44392.59233796296</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14247,10 +13879,8 @@
           <t>4913908976</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:12:37</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44392.59209490741</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14326,10 +13956,8 @@
           <t>4913904842</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:12:35</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44392.59207175926</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14401,10 +14029,8 @@
           <t>4913905931</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:11:02</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44392.59099537037</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14469,10 +14095,8 @@
           <t>4913905373</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:10:44</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44392.59078703704</v>
       </c>
       <c r="I197" t="n">
         <v>2</v>
@@ -14544,10 +14168,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:10:27</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44392.59059027778</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -14611,10 +14233,8 @@
           <t>4913890793</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:08:25</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44392.58917824074</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -14682,10 +14302,8 @@
           <t>4913885344</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:07:30</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44392.58854166666</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -14757,10 +14375,8 @@
           <t>4913881909</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:07:22</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44392.58844907407</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -14832,10 +14448,8 @@
           <t>4913881564</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:07:11</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44392.58832175926</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -14895,10 +14509,8 @@
           <t>4913616274</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:06:43</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44392.58799768519</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -14975,10 +14587,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:06:29</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44392.58783564815</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15042,10 +14652,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:06:25</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44392.58778935186</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15109,10 +14717,8 @@
           <t>4913873182</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:06:20</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44392.58773148148</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15176,10 +14782,8 @@
           <t>4913869124</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:05:56</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44392.5874537037</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15255,10 +14859,8 @@
           <t>4913868134</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:05:25</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44392.58709490741</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15322,10 +14924,8 @@
           <t>4913871184</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:05:17</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44392.58700231482</v>
       </c>
       <c r="I209" t="n">
         <v>1</v>
@@ -15397,10 +14997,8 @@
           <t>4913865941</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:04:19</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44392.58633101852</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15464,10 +15062,8 @@
           <t>4913858619</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:03:56</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44392.58606481482</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15531,10 +15127,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:03:48</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44392.58597222222</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -15594,10 +15188,8 @@
           <t>4913860868</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:03:18</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44392.585625</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -15661,10 +15253,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:02:42</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44392.58520833333</v>
       </c>
       <c r="I214" t="n">
         <v>5</v>
@@ -15728,10 +15318,8 @@
           <t>4913848380</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:02:01</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44392.5847337963</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -15795,10 +15383,8 @@
           <t>4913847910</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:01:47</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44392.58457175926</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -15862,10 +15448,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:01:40</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44392.58449074074</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -15925,10 +15509,8 @@
           <t>4913843905</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:01:27</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44392.58434027778</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16000,10 +15582,8 @@
           <t>4913489188</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:00:47</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44392.58387731481</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16071,10 +15651,8 @@
           <t>4913833863</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:59:47</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44392.58318287037</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16138,10 +15716,8 @@
           <t>4913836414</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:59:30</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44392.58298611111</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16213,10 +15789,8 @@
           <t>4913835017</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:58:49</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44392.58251157407</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16284,10 +15858,8 @@
           <t>4913827558</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:58:08</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44392.58203703703</v>
       </c>
       <c r="I223" t="n">
         <v>2</v>
@@ -16355,10 +15927,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:57:42</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44392.58173611111</v>
       </c>
       <c r="I224" t="n">
         <v>1</v>
@@ -16440,10 +16010,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:57:30</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44392.58159722222</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16503,10 +16071,8 @@
           <t>4913822185</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:57:24</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44392.58152777778</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -16582,10 +16148,8 @@
           <t>4913821825</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:57:13</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44392.58140046296</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -16657,10 +16221,8 @@
           <t>4913825325</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:57:00</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44392.58125</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -16728,10 +16290,8 @@
           <t>4913503058</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:56:21</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44392.58079861111</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -16795,10 +16355,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:55:24</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44392.58013888889</v>
       </c>
       <c r="I230" t="n">
         <v>9</v>
@@ -16870,10 +16428,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:54:58</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44392.57983796296</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -16937,10 +16493,8 @@
           <t>4913801264</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:53:29</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44392.57880787037</v>
       </c>
       <c r="I232" t="n">
         <v>2</v>
@@ -17016,10 +16570,8 @@
           <t>4913489188</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:52:49</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44392.57834490741</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17091,10 +16643,8 @@
           <t>4913788245</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:52:03</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44392.5778125</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17158,10 +16708,8 @@
           <t>4913786729</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:51:17</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44392.57728009259</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17225,10 +16773,8 @@
           <t>4913641746</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:51:15</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44392.57725694445</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17296,10 +16842,8 @@
           <t>4913778073</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:50:28</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44392.57671296296</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17367,10 +16911,8 @@
           <t>4913782426</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:50:26</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44392.57668981481</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -17442,10 +16984,8 @@
           <t>4913771383</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:48:38</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44392.57543981481</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -17513,10 +17053,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:48:06</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44392.57506944444</v>
       </c>
       <c r="I240" t="n">
         <v>1</v>
@@ -17585,10 +17123,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:47:30</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44392.57465277778</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -17652,10 +17188,8 @@
           <t>4913533395</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:47:25</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44392.5745949074</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -17723,10 +17257,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:47:04</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44392.57435185185</v>
       </c>
       <c r="I243" t="n">
         <v>6</v>
@@ -17794,10 +17326,8 @@
           <t>4913748329</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:45:42</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44392.57340277778</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -17873,10 +17403,8 @@
           <t>4913488458</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:45:25</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44392.57320601852</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -17944,10 +17472,8 @@
           <t>4913747636</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:45:22</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44392.5731712963</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18011,10 +17537,8 @@
           <t>4913743205</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:44:43</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44392.57271990741</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18082,10 +17606,8 @@
           <t>4913742560</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:44:25</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44392.57251157407</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18153,10 +17675,8 @@
           <t>4913745417</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:44:20</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44392.5724537037</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18232,10 +17752,8 @@
           <t>4913720307</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:44:18</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44392.57243055556</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18311,10 +17829,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:43:02</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44392.57155092592</v>
       </c>
       <c r="I251" t="n">
         <v>4</v>
@@ -18387,10 +17903,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:43:00</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44392.57152777778</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18462,10 +17976,8 @@
           <t>4913732343</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:42:53</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44392.57144675926</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -18541,10 +18053,8 @@
           <t>4913728487</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:42:31</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44392.57119212963</v>
       </c>
       <c r="I254" t="n">
         <v>1</v>
@@ -18612,10 +18122,8 @@
           <t>4913728481</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:42:31</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44392.57119212963</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -18691,10 +18199,8 @@
           <t>4913731462</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:42:29</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44392.57116898148</v>
       </c>
       <c r="I256" t="n">
         <v>1</v>
@@ -18770,10 +18276,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:41:53</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44392.57075231482</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -18849,10 +18353,8 @@
           <t>4913724916</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:41:44</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44392.57064814815</v>
       </c>
       <c r="I258" t="n">
         <v>3</v>
@@ -18920,10 +18422,8 @@
           <t>4913719499</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:41:37</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44392.57056712963</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -18991,10 +18491,8 @@
           <t>4913723294</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:40:59</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44392.57012731482</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19066,10 +18564,8 @@
           <t>4913722986</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:40:50</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44392.57002314815</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19145,10 +18641,8 @@
           <t>4913720307</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:39:36</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44392.56916666667</v>
       </c>
       <c r="I262" t="n">
         <v>3</v>
@@ -19220,10 +18714,8 @@
           <t>4913709814</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:39:22</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44392.56900462963</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19287,10 +18779,8 @@
           <t>4913698970</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:38:00</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44392.56805555556</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19362,10 +18852,8 @@
           <t>4913701974</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:37:57</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44392.56802083334</v>
       </c>
       <c r="I265" t="n">
         <v>6</v>
@@ -19441,10 +18929,8 @@
           <t>4913694248</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:36:43</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44392.56716435185</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -19512,10 +18998,8 @@
           <t>4913692785</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:36:03</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44392.56670138889</v>
       </c>
       <c r="I267" t="n">
         <v>1</v>
@@ -19579,10 +19063,8 @@
           <t>4913684436</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:35:53</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44392.56658564815</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -19646,10 +19128,8 @@
           <t>4913687362</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:35:42</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44392.56645833333</v>
       </c>
       <c r="I269" t="n">
         <v>1</v>
@@ -19725,10 +19205,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:35:12</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44392.56611111111</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -19804,10 +19282,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:34:07</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44392.5653587963</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -19884,10 +19360,8 @@
           <t>4913673791</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:34:01</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44392.56528935185</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -19983,10 +19457,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:32:25</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44392.56417824074</v>
       </c>
       <c r="I273" t="n">
         <v>3</v>
@@ -20050,10 +19522,8 @@
           <t>4913654884</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:31:38</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44392.56363425926</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20121,10 +19591,8 @@
           <t>4913658304</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:31:25</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44392.56348379629</v>
       </c>
       <c r="I275" t="n">
         <v>5</v>
@@ -20192,10 +19660,8 @@
           <t>4913524302</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:31:19</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44392.56341435185</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20260,10 +19726,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:30:46</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44392.56303240741</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20327,10 +19791,8 @@
           <t>4913648997</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:29:52</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44392.56240740741</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -20398,10 +19860,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:29:46</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44392.56233796296</v>
       </c>
       <c r="I279" t="n">
         <v>17</v>
@@ -20477,10 +19937,8 @@
           <t>4913642739</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:28:51</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44392.56170138889</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -20548,10 +20006,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:28:45</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44392.56163194445</v>
       </c>
       <c r="I281" t="n">
         <v>4</v>
@@ -20615,10 +20071,8 @@
           <t>4913641746</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:28:23</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44392.56137731481</v>
       </c>
       <c r="I282" t="n">
         <v>6</v>
@@ -20682,10 +20136,8 @@
           <t>4913634119</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:27:40</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44392.56087962963</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -20749,10 +20201,8 @@
           <t>4913633931</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:27:35</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44392.56082175926</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -20820,10 +20270,8 @@
           <t>4913632360</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:26:54</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44392.56034722222</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -20892,10 +20340,8 @@
           <t>4913631839</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:26:40</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44392.56018518518</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
@@ -20967,10 +20413,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:26:31</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44392.56008101852</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21034,10 +20478,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:26:11</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44392.55984953704</v>
       </c>
       <c r="I288" t="n">
         <v>4</v>
@@ -21109,10 +20551,8 @@
           <t>4913614965</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:25:12</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44392.55916666667</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21184,10 +20624,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:25:08</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44392.55912037037</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -21259,10 +20697,8 @@
           <t>4913618185</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:25:06</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44392.55909722222</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21334,10 +20770,8 @@
           <t>4913609743</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:24:59</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44392.5590162037</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -21401,10 +20835,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:24:47</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44392.55887731481</v>
       </c>
       <c r="I293" t="n">
         <v>3</v>
@@ -21468,10 +20900,8 @@
           <t>4913608862</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:24:35</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44392.55873842593</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
@@ -21549,10 +20979,8 @@
           <t>4913608461</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:24:25</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44392.55862268519</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -21620,10 +21048,8 @@
           <t>4913616274</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:24:16</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44392.55851851852</v>
       </c>
       <c r="I296" t="n">
         <v>3</v>
@@ -21693,10 +21119,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:23:49</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44392.55820601852</v>
       </c>
       <c r="I297" t="n">
         <v>4</v>
@@ -21756,10 +21180,8 @@
           <t>4913606759</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:23:41</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44392.55811342593</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -21835,10 +21257,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:23:30</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44392.55798611111</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -21906,10 +21326,8 @@
           <t>4913604177</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:23:22</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44392.55789351852</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -21977,10 +21395,8 @@
           <t>4913605225</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:23:01</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44392.55765046296</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22044,10 +21460,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:22:35</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44392.55734953703</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -22111,10 +21525,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:22:30</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44392.55729166666</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -22190,10 +21602,8 @@
           <t>4913522628</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:22:26</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44392.55724537037</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22257,10 +21667,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:22:11</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44392.55707175926</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -22336,10 +21744,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:21:57</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44392.55690972223</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -22411,10 +21817,8 @@
           <t>4913522628</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:21:56</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44392.55689814815</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -22478,10 +21882,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:20:36</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44392.55597222222</v>
       </c>
       <c r="I308" t="n">
         <v>12</v>
@@ -22553,10 +21955,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:20:13</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44392.55570601852</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
@@ -22632,10 +22032,8 @@
           <t>4913586390</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:20:01</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44392.55556712963</v>
       </c>
       <c r="I310" t="n">
         <v>1</v>
@@ -22711,10 +22109,8 @@
           <t>4913577984</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:19:49</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44392.55542824074</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -22794,10 +22190,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:19:33</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44392.55524305555</v>
       </c>
       <c r="I312" t="n">
         <v>1</v>
@@ -22865,10 +22259,8 @@
           <t>4913573908</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:18:57</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44392.55482638889</v>
       </c>
       <c r="I313" t="n">
         <v>22</v>
@@ -22936,10 +22328,8 @@
           <t>4913580291</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:18:42</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44392.55465277778</v>
       </c>
       <c r="I314" t="n">
         <v>2</v>
@@ -23015,10 +22405,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:18:08</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44392.55425925926</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
@@ -23086,10 +22474,8 @@
           <t>4913568788</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:18:04</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44392.55421296296</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -23159,10 +22545,8 @@
           <t>4913570478</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:17:32</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44392.55384259259</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
@@ -23230,10 +22614,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:17:15</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44392.55364583333</v>
       </c>
       <c r="I318" t="n">
         <v>192</v>
@@ -23301,10 +22683,8 @@
           <t>4913561944</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:17:10</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44392.55358796296</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
@@ -23376,10 +22756,8 @@
           <t>4913566258</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:17:00</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44392.55347222222</v>
       </c>
       <c r="I320" t="n">
         <v>1</v>
@@ -23455,10 +22833,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:16:49</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44392.55334490741</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -23530,10 +22906,8 @@
           <t>4913554691</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:16:20</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44392.55300925926</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
@@ -23605,10 +22979,8 @@
           <t>4913524302</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:15:53</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44392.55269675926</v>
       </c>
       <c r="I323" t="n">
         <v>24</v>
@@ -23680,10 +23052,8 @@
           <t>4913449675</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:15:37</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44392.55251157407</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
@@ -23751,10 +23121,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:15:29</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44392.55241898148</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
@@ -23822,10 +23190,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:15:22</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44392.55233796296</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
@@ -23897,10 +23263,8 @@
           <t>4913544878</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:15:10</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44392.55219907407</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
@@ -23976,10 +23340,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:15:02</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44392.55210648148</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -24047,10 +23409,8 @@
           <t>4913544423</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:15:00</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44392.55208333334</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -24122,10 +23482,8 @@
           <t>4913551341</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:14:57</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44392.55204861111</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
@@ -24193,10 +23551,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:14:51</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44392.55197916667</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
@@ -24272,10 +23628,8 @@
           <t>4913543248</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:14:31</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44392.55174768518</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -24352,10 +23706,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:14:00</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44392.55138888889</v>
       </c>
       <c r="I333" t="n">
         <v>11</v>
@@ -24427,10 +23779,8 @@
           <t>4913524302</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:13:41</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44392.55116898148</v>
       </c>
       <c r="I334" t="n">
         <v>2</v>
@@ -24490,10 +23840,8 @@
           <t>4913533395</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:13:26</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44392.55099537037</v>
       </c>
       <c r="I335" t="n">
         <v>1</v>
@@ -24561,10 +23909,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:13:24</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44392.55097222222</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -24640,10 +23986,8 @@
           <t>4913540401</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:13:18</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44392.55090277778</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
@@ -24719,10 +24063,8 @@
           <t>4913522628</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:13:15</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44392.55086805556</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -24786,10 +24128,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:13:05</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44392.55075231481</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
@@ -24853,10 +24193,8 @@
           <t>4913524302</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:12:31</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44392.5503587963</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -24932,10 +24270,8 @@
           <t>4913535329</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:12:25</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44392.55028935185</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -24999,10 +24335,8 @@
           <t>4913528018</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:12:18</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44392.55020833333</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
@@ -25066,10 +24400,8 @@
           <t>4913524302</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:12:00</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44392.55</v>
       </c>
       <c r="I343" t="n">
         <v>14</v>
@@ -25133,10 +24465,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:11:59</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44392.54998842593</v>
       </c>
       <c r="I344" t="n">
         <v>1</v>
@@ -25204,10 +24534,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:11:55</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44392.54994212963</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
@@ -25275,10 +24603,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:11:53</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44392.54991898148</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
@@ -25346,10 +24672,8 @@
           <t>4913503058</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:11:49</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44392.54987268519</v>
       </c>
       <c r="I347" t="n">
         <v>4</v>
@@ -25417,10 +24741,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:11:46</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44392.54983796296</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
@@ -25497,10 +24819,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:11:36</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44392.54972222223</v>
       </c>
       <c r="I349" t="n">
         <v>5</v>
@@ -25576,10 +24896,8 @@
           <t>4913526235</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:11:32</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44392.54967592593</v>
       </c>
       <c r="I350" t="n">
         <v>1</v>
@@ -25639,10 +24957,8 @@
           <t>4913523028</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:11:30</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44392.54965277778</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
@@ -25704,10 +25020,8 @@
           <t>4913522628</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:11:21</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44392.54954861111</v>
       </c>
       <c r="I352" t="n">
         <v>1</v>
@@ -25771,10 +25085,8 @@
           <t>4913514302</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:10:43</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44392.54910879629</v>
       </c>
       <c r="I353" t="n">
         <v>1</v>
@@ -25846,10 +25158,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:10:21</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44392.54885416666</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
@@ -25925,10 +25235,8 @@
           <t>4913509955</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:10:17</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44392.54880787037</v>
       </c>
       <c r="I355" t="n">
         <v>1</v>
@@ -26001,10 +25309,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:10:16</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44392.54879629629</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
@@ -26076,10 +25382,8 @@
           <t>4913515643</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:10:04</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44392.54865740741</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
@@ -26151,10 +25455,8 @@
           <t>4913489188</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:09:58</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44392.54858796296</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
@@ -26222,10 +25524,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:09:53</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44392.54853009259</v>
       </c>
       <c r="I359" t="n">
         <v>1</v>
@@ -26297,10 +25597,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:09:43</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44392.54841435186</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
@@ -26376,10 +25674,8 @@
           <t>4913504330</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:09:32</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44392.54828703704</v>
       </c>
       <c r="I361" t="n">
         <v>2</v>
@@ -26455,10 +25751,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:09:31</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44392.54827546296</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
@@ -26526,10 +25820,8 @@
           <t>4913511055</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:09:24</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44392.54819444445</v>
       </c>
       <c r="I363" t="n">
         <v>1</v>
@@ -26595,10 +25887,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:09:23</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44392.54818287037</v>
       </c>
       <c r="I364" t="n">
         <v>15</v>
@@ -26666,10 +25956,8 @@
           <t>4913507207</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:09:10</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44392.54803240741</v>
       </c>
       <c r="I365" t="n">
         <v>1</v>
@@ -26745,10 +26033,8 @@
           <t>4913503058</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:09:00</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44392.54791666667</v>
       </c>
       <c r="I366" t="n">
         <v>26</v>
@@ -26820,10 +26106,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:08:56</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44392.54787037037</v>
       </c>
       <c r="I367" t="n">
         <v>1</v>
@@ -26895,10 +26179,8 @@
           <t>4913471057</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:08:48</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44392.54777777778</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
@@ -26974,10 +26256,8 @@
           <t>4913506014</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:08:42</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44392.54770833333</v>
       </c>
       <c r="I369" t="n">
         <v>1</v>
@@ -27041,10 +26321,8 @@
           <t>4913501653</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:08:24</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44392.5475</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
@@ -27104,10 +26382,8 @@
           <t>4913501656</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:08:24</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44392.5475</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
@@ -27183,10 +26459,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:08:17</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44392.54741898148</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
@@ -27250,10 +26524,8 @@
           <t>4913501429</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:08:17</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44392.54741898148</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
@@ -27321,10 +26593,8 @@
           <t>4913494376</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:08:02</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44392.54724537037</v>
       </c>
       <c r="I374" t="n">
         <v>1</v>
@@ -27396,10 +26666,8 @@
           <t>4913449675</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:08:02</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44392.54724537037</v>
       </c>
       <c r="I375" t="n">
         <v>2</v>
@@ -27463,10 +26731,8 @@
           <t>4913493853</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:07:50</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44392.54710648148</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
@@ -27534,10 +26800,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:07:49</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44392.54709490741</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
@@ -27601,10 +26865,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:07:49</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44392.54709490741</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
@@ -27668,10 +26930,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:07:47</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44392.54707175926</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
@@ -27747,10 +27007,8 @@
           <t>4913489188</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:07:21</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44392.54677083333</v>
       </c>
       <c r="I380" t="n">
         <v>3</v>
@@ -27810,10 +27068,8 @@
           <t>4913491996</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:07:05</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44392.54658564815</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
@@ -27881,10 +27137,8 @@
           <t>4913495333</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:07:04</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44392.54657407408</v>
       </c>
       <c r="I382" t="n">
         <v>4</v>
@@ -27952,10 +27206,8 @@
           <t>4913488458</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:07:02</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44392.54655092592</v>
       </c>
       <c r="I383" t="n">
         <v>4</v>
@@ -28020,10 +27272,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:06:08</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44392.54592592592</v>
       </c>
       <c r="I384" t="n">
         <v>2</v>
@@ -28090,10 +27340,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:06:03</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44392.54586805555</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
@@ -28161,10 +27409,8 @@
           <t>4913482710</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:06:00</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44392.54583333333</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
@@ -28228,10 +27474,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:05:59</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44392.54582175926</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
@@ -28303,10 +27547,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:05:50</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44392.54571759259</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
@@ -28379,10 +27621,8 @@
           <t>4913485411</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:05:46</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44392.5456712963</v>
       </c>
       <c r="I389" t="n">
         <v>16</v>
@@ -28458,10 +27698,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:05:35</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44392.54554398148</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
@@ -28529,10 +27767,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:05:34</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44392.54553240741</v>
       </c>
       <c r="I391" t="n">
         <v>6</v>
@@ -28605,10 +27841,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:05:29</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44392.54547453704</v>
       </c>
       <c r="I392" t="n">
         <v>3</v>
@@ -28668,10 +27902,8 @@
           <t>4913474728</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:05:27</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44392.54545138889</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
@@ -28739,10 +27971,8 @@
           <t>4913474648</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:05:25</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44392.54542824074</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
@@ -28818,10 +28048,8 @@
           <t>4913456609</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:05:23</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44392.54540509259</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
@@ -28889,10 +28117,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:05:16</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44392.54532407408</v>
       </c>
       <c r="I396" t="n">
         <v>3</v>
@@ -28952,10 +28178,8 @@
           <t>4913477301</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:05:13</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44392.54528935185</v>
       </c>
       <c r="I397" t="n">
         <v>21</v>
@@ -29031,10 +28255,8 @@
           <t>4913473507</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:04:58</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44392.54511574074</v>
       </c>
       <c r="I398" t="n">
         <v>0</v>
@@ -29110,10 +28332,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:04:42</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44392.54493055555</v>
       </c>
       <c r="I399" t="n">
         <v>1</v>
@@ -29181,10 +28401,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:04:42</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44392.54493055555</v>
       </c>
       <c r="I400" t="n">
         <v>0</v>
@@ -29252,10 +28470,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:04:36</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44392.54486111111</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
@@ -29319,10 +28535,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:04:29</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44392.54478009259</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
@@ -29398,10 +28612,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:04:24</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44392.54472222222</v>
       </c>
       <c r="I403" t="n">
         <v>1</v>
@@ -29477,10 +28689,8 @@
           <t>4913472103</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:04:23</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44392.54471064815</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
@@ -29556,10 +28766,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:04:17</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44392.54464120371</v>
       </c>
       <c r="I405" t="n">
         <v>5</v>
@@ -29635,10 +28843,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:04:08</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44392.54453703704</v>
       </c>
       <c r="I406" t="n">
         <v>0</v>
@@ -29710,10 +28916,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:04:07</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44392.54452546296</v>
       </c>
       <c r="I407" t="n">
         <v>0</v>
@@ -29785,10 +28989,8 @@
           <t>4913471389</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:04:05</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44392.54450231481</v>
       </c>
       <c r="I408" t="n">
         <v>3</v>
@@ -29864,10 +29066,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:04:03</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44392.54447916667</v>
       </c>
       <c r="I409" t="n">
         <v>5</v>
@@ -29939,10 +29139,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:04:02</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44392.54446759259</v>
       </c>
       <c r="I410" t="n">
         <v>0</v>
@@ -30016,10 +29214,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:04:01</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44392.54445601852</v>
       </c>
       <c r="I411" t="n">
         <v>0</v>
@@ -30084,10 +29280,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:04:01</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44392.54445601852</v>
       </c>
       <c r="I412" t="n">
         <v>5</v>
@@ -30163,10 +29357,8 @@
           <t>4913467724</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:04:00</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44392.54444444444</v>
       </c>
       <c r="I413" t="n">
         <v>0</v>
@@ -30238,10 +29430,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:03:56</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44392.54439814815</v>
       </c>
       <c r="I414" t="n">
         <v>0</v>
@@ -30305,10 +29495,8 @@
           <t>4913471057</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:03:56</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44392.54439814815</v>
       </c>
       <c r="I415" t="n">
         <v>0</v>
@@ -30384,10 +29572,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:03:55</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44392.54438657407</v>
       </c>
       <c r="I416" t="n">
         <v>1</v>
@@ -30456,10 +29642,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:03:55</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44392.54438657407</v>
       </c>
       <c r="I417" t="n">
         <v>1</v>
@@ -30527,10 +29711,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:03:55</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44392.54438657407</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
@@ -30602,10 +29784,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:03:53</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44392.54436342593</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
@@ -30669,10 +29849,8 @@
           <t>4913458808</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:03:53</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44392.54436342593</v>
       </c>
       <c r="I420" t="n">
         <v>0</v>
@@ -30736,10 +29914,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:03:52</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44392.54435185185</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
@@ -30807,10 +29983,8 @@
           <t>4913470857</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:03:52</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44392.54435185185</v>
       </c>
       <c r="I422" t="n">
         <v>0</v>
@@ -30886,10 +30060,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:03:49</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44392.54431712963</v>
       </c>
       <c r="I423" t="n">
         <v>1</v>
@@ -30953,10 +30125,8 @@
           <t>4913462346</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:03:42</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44392.54423611111</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
@@ -31032,10 +30202,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:03:40</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44392.54421296297</v>
       </c>
       <c r="I425" t="n">
         <v>0</v>
@@ -31103,10 +30271,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:03:36</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44392.54416666667</v>
       </c>
       <c r="I426" t="n">
         <v>1</v>
@@ -31183,10 +30349,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:03:35</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44392.54415509259</v>
       </c>
       <c r="I427" t="n">
         <v>1</v>
@@ -31258,10 +30422,8 @@
           <t>4913463058</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:03:33</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44392.54413194444</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
@@ -31337,10 +30499,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:03:29</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44392.54408564815</v>
       </c>
       <c r="I429" t="n">
         <v>0</v>
@@ -31408,10 +30568,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:03:19</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44392.5439699074</v>
       </c>
       <c r="I430" t="n">
         <v>0</v>
@@ -31483,10 +30641,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:03:18</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44392.54395833334</v>
       </c>
       <c r="I431" t="n">
         <v>0</v>
@@ -31554,10 +30710,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:03:16</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44392.54393518518</v>
       </c>
       <c r="I432" t="n">
         <v>1</v>
@@ -31633,10 +30787,8 @@
           <t>4913462346</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:03:16</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44392.54393518518</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
@@ -31712,10 +30864,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:03:13</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44392.54390046297</v>
       </c>
       <c r="I434" t="n">
         <v>0</v>
@@ -31791,10 +30941,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:03:13</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44392.54390046297</v>
       </c>
       <c r="I435" t="n">
         <v>0</v>
@@ -31862,10 +31010,8 @@
           <t>4913465683</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:03:12</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44392.54388888889</v>
       </c>
       <c r="I436" t="n">
         <v>1</v>
@@ -31929,10 +31075,8 @@
           <t>4913459239</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:03:12</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44392.54388888889</v>
       </c>
       <c r="I437" t="n">
         <v>1</v>
@@ -32008,10 +31152,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:03:11</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44392.54387731481</v>
       </c>
       <c r="I438" t="n">
         <v>0</v>
@@ -32083,10 +31225,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:03:10</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44392.54386574074</v>
       </c>
       <c r="I439" t="n">
         <v>0</v>
@@ -32159,10 +31299,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:03:07</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44392.54383101852</v>
       </c>
       <c r="I440" t="n">
         <v>0</v>
@@ -32239,10 +31377,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:03:04</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44392.5437962963</v>
       </c>
       <c r="I441" t="n">
         <v>0</v>
@@ -32310,10 +31446,8 @@
           <t>4913461855</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:03:04</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44392.5437962963</v>
       </c>
       <c r="I442" t="n">
         <v>0</v>
@@ -32385,10 +31519,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:03:03</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44392.54378472222</v>
       </c>
       <c r="I443" t="n">
         <v>39</v>
@@ -32452,10 +31584,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:03:02</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44392.54377314815</v>
       </c>
       <c r="I444" t="n">
         <v>1</v>
@@ -32515,10 +31645,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:03:01</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44392.54376157407</v>
       </c>
       <c r="I445" t="n">
         <v>1</v>
@@ -32590,10 +31718,8 @@
           <t>4913458808</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:03:01</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44392.54376157407</v>
       </c>
       <c r="I446" t="n">
         <v>1</v>
@@ -32669,10 +31795,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:02:54</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44392.54368055556</v>
       </c>
       <c r="I447" t="n">
         <v>0</v>
@@ -32736,10 +31860,8 @@
           <t>4913461407</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:02:53</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44392.54366898148</v>
       </c>
       <c r="I448" t="n">
         <v>0</v>
@@ -32803,10 +31925,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:02:52</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44392.5436574074</v>
       </c>
       <c r="I449" t="n">
         <v>0</v>
@@ -32875,10 +31995,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:02:51</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44392.54364583334</v>
       </c>
       <c r="I450" t="n">
         <v>0</v>
@@ -32954,10 +32072,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:02:50</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44392.54363425926</v>
       </c>
       <c r="I451" t="n">
         <v>0</v>
@@ -33033,10 +32149,8 @@
           <t>4913454699</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:02:49</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44392.54362268518</v>
       </c>
       <c r="I452" t="n">
         <v>0</v>
@@ -33104,10 +32218,8 @@
           <t>4913456609</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:02:49</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44392.54362268518</v>
       </c>
       <c r="I453" t="n">
         <v>0</v>
@@ -33178,10 +32290,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:02:45</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44392.54357638889</v>
       </c>
       <c r="I454" t="n">
         <v>0</v>
@@ -33249,10 +32359,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:02:42</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44392.54354166667</v>
       </c>
       <c r="I455" t="n">
         <v>135</v>
@@ -33328,10 +32436,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:02:41</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44392.54353009259</v>
       </c>
       <c r="I456" t="n">
         <v>0</v>
@@ -33399,10 +32505,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:02:40</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44392.54351851852</v>
       </c>
       <c r="I457" t="n">
         <v>0</v>
@@ -33466,10 +32570,8 @@
           <t>4913460811</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:02:40</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44392.54351851852</v>
       </c>
       <c r="I458" t="n">
         <v>0</v>
@@ -33541,10 +32643,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:02:37</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44392.5434837963</v>
       </c>
       <c r="I459" t="n">
         <v>11</v>
@@ -33612,10 +32712,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:02:33</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44392.5434375</v>
       </c>
       <c r="I460" t="n">
         <v>1</v>
@@ -33679,10 +32777,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:02:32</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44392.54342592593</v>
       </c>
       <c r="I461" t="n">
         <v>0</v>
@@ -33750,10 +32846,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:02:25</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44392.5433449074</v>
       </c>
       <c r="I462" t="n">
         <v>1</v>
@@ -33825,10 +32919,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:02:24</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44392.54333333333</v>
       </c>
       <c r="I463" t="n">
         <v>1</v>
@@ -33904,10 +32996,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:02:19</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44392.54327546297</v>
       </c>
       <c r="I464" t="n">
         <v>0</v>
@@ -33975,10 +33065,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:02:17</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44392.54325231481</v>
       </c>
       <c r="I465" t="n">
         <v>0</v>
@@ -34046,10 +33134,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:02:15</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44392.54322916667</v>
       </c>
       <c r="I466" t="n">
         <v>0</v>
@@ -34117,10 +33203,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:02:13</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44392.54320601852</v>
       </c>
       <c r="I467" t="n">
         <v>0</v>
@@ -34188,10 +33272,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:02:13</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44392.54320601852</v>
       </c>
       <c r="I468" t="n">
         <v>0</v>
@@ -34259,10 +33341,8 @@
           <t>4913449675</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:02:13</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44392.54320601852</v>
       </c>
       <c r="I469" t="n">
         <v>1</v>
@@ -34330,10 +33410,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:02:11</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44392.54318287037</v>
       </c>
       <c r="I470" t="n">
         <v>3</v>
@@ -34397,10 +33475,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:02:11</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44392.54318287037</v>
       </c>
       <c r="I471" t="n">
         <v>0</v>
@@ -34476,10 +33552,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:02:09</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44392.54315972222</v>
       </c>
       <c r="I472" t="n">
         <v>0</v>
@@ -34543,10 +33617,8 @@
           <t>4913456609</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:02:09</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44392.54315972222</v>
       </c>
       <c r="I473" t="n">
         <v>0</v>
@@ -34614,10 +33686,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:02:07</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44392.54313657407</v>
       </c>
       <c r="I474" t="n">
         <v>1</v>
@@ -34694,10 +33764,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:02:05</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44392.54311342593</v>
       </c>
       <c r="I475" t="n">
         <v>0</v>
@@ -34761,10 +33829,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:02:05</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44392.54311342593</v>
       </c>
       <c r="I476" t="n">
         <v>1</v>
@@ -34840,10 +33906,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:02:02</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44392.5430787037</v>
       </c>
       <c r="I477" t="n">
         <v>0</v>
@@ -34915,10 +33979,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:01:59</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44392.54304398148</v>
       </c>
       <c r="I478" t="n">
         <v>5</v>
@@ -34986,10 +34048,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:01:57</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44392.54302083333</v>
       </c>
       <c r="I479" t="n">
         <v>116</v>
@@ -35057,10 +34117,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:01:56</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44392.54300925926</v>
       </c>
       <c r="I480" t="n">
         <v>0</v>
@@ -35136,10 +34194,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:01:54</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44392.54298611111</v>
       </c>
       <c r="I481" t="n">
         <v>0</v>
@@ -35215,10 +34271,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:01:51</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44392.54295138889</v>
       </c>
       <c r="I482" t="n">
         <v>8</v>
@@ -35294,10 +34348,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:01:49</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44392.54292824074</v>
       </c>
       <c r="I483" t="n">
         <v>0</v>
@@ -35361,10 +34413,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:01:46</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44392.54289351852</v>
       </c>
       <c r="I484" t="n">
         <v>2</v>
@@ -35428,10 +34478,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:01:45</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44392.54288194444</v>
       </c>
       <c r="I485" t="n">
         <v>0</v>
@@ -35504,10 +34552,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:01:45</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44392.54288194444</v>
       </c>
       <c r="I486" t="n">
         <v>701</v>
@@ -35583,10 +34629,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:01:45</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44392.54288194444</v>
       </c>
       <c r="I487" t="n">
         <v>0</v>
@@ -35658,10 +34702,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:01:41</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44392.54283564815</v>
       </c>
       <c r="I488" t="n">
         <v>4</v>
@@ -35729,10 +34771,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:01:40</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44392.54282407407</v>
       </c>
       <c r="I489" t="n">
         <v>1</v>
@@ -35801,10 +34841,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:01:38</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44392.54280092593</v>
       </c>
       <c r="I490" t="n">
         <v>0</v>
@@ -35868,10 +34906,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:01:37</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44392.54278935185</v>
       </c>
       <c r="I491" t="n">
         <v>0</v>
@@ -35939,10 +34975,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:01:37</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44392.54278935185</v>
       </c>
       <c r="I492" t="n">
         <v>1</v>
@@ -36011,10 +35045,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:01:34</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44392.54275462963</v>
       </c>
       <c r="I493" t="n">
         <v>0</v>
@@ -36086,10 +35118,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:01:31</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44392.5427199074</v>
       </c>
       <c r="I494" t="n">
         <v>1</v>
@@ -36157,10 +35187,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:01:29</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44392.54269675926</v>
       </c>
       <c r="I495" t="n">
         <v>0</v>
@@ -36234,10 +35262,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:01:28</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44392.54268518519</v>
       </c>
       <c r="I496" t="n">
         <v>0</v>
@@ -36305,10 +35331,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:01:28</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44392.54268518519</v>
       </c>
       <c r="I497" t="n">
         <v>1</v>
@@ -36380,10 +35404,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:01:27</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44392.54267361111</v>
       </c>
       <c r="I498" t="n">
         <v>57</v>
@@ -36451,10 +35473,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:01:25</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44392.54265046296</v>
       </c>
       <c r="I499" t="n">
         <v>2</v>
@@ -36530,10 +35550,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:01:25</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44392.54265046296</v>
       </c>
       <c r="I500" t="n">
         <v>0</v>
@@ -36609,10 +35627,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:01:23</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44392.54262731481</v>
       </c>
       <c r="I501" t="n">
         <v>725</v>
@@ -36680,10 +35696,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:01:23</t>
-        </is>
+      <c r="H502" s="1" t="n">
+        <v>44392.54262731481</v>
       </c>
       <c r="I502" t="n">
         <v>1</v>
@@ -36751,10 +35765,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:01:20</t>
-        </is>
+      <c r="H503" s="1" t="n">
+        <v>44392.5425925926</v>
       </c>
       <c r="I503" t="n">
         <v>1</v>
@@ -36822,10 +35834,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:01:18</t>
-        </is>
+      <c r="H504" s="1" t="n">
+        <v>44392.54256944444</v>
       </c>
       <c r="I504" t="n">
         <v>1</v>
@@ -36901,10 +35911,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:01:17</t>
-        </is>
+      <c r="H505" s="1" t="n">
+        <v>44392.54255787037</v>
       </c>
       <c r="I505" t="n">
         <v>1</v>
@@ -36980,10 +35988,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:01:16</t>
-        </is>
+      <c r="H506" s="1" t="n">
+        <v>44392.5425462963</v>
       </c>
       <c r="I506" t="n">
         <v>0</v>
@@ -37047,10 +36053,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:01:15</t>
-        </is>
+      <c r="H507" s="1" t="n">
+        <v>44392.54253472222</v>
       </c>
       <c r="I507" t="n">
         <v>99</v>
@@ -37122,10 +36126,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:01:15</t>
-        </is>
+      <c r="H508" s="1" t="n">
+        <v>44392.54253472222</v>
       </c>
       <c r="I508" t="n">
         <v>0</v>
@@ -37189,10 +36191,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:01:15</t>
-        </is>
+      <c r="H509" s="1" t="n">
+        <v>44392.54253472222</v>
       </c>
       <c r="I509" t="n">
         <v>1</v>
@@ -37264,10 +36264,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:01:14</t>
-        </is>
+      <c r="H510" s="1" t="n">
+        <v>44392.54252314815</v>
       </c>
       <c r="I510" t="n">
         <v>0</v>
@@ -37343,10 +36341,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:01:14</t>
-        </is>
+      <c r="H511" s="1" t="n">
+        <v>44392.54252314815</v>
       </c>
       <c r="I511" t="n">
         <v>1</v>
@@ -37414,10 +36410,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:01:12</t>
-        </is>
+      <c r="H512" s="1" t="n">
+        <v>44392.5425</v>
       </c>
       <c r="I512" t="n">
         <v>0</v>
@@ -37477,10 +36471,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:01:10</t>
-        </is>
+      <c r="H513" s="1" t="n">
+        <v>44392.54247685185</v>
       </c>
       <c r="I513" t="n">
         <v>0</v>
@@ -37548,10 +36540,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:01:09</t>
-        </is>
+      <c r="H514" s="1" t="n">
+        <v>44392.54246527778</v>
       </c>
       <c r="I514" t="n">
         <v>31</v>
@@ -37619,10 +36609,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:01:09</t>
-        </is>
+      <c r="H515" s="1" t="n">
+        <v>44392.54246527778</v>
       </c>
       <c r="I515" t="n">
         <v>0</v>
@@ -37690,10 +36678,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:01:04</t>
-        </is>
+      <c r="H516" s="1" t="n">
+        <v>44392.54240740741</v>
       </c>
       <c r="I516" t="n">
         <v>0</v>
@@ -37765,10 +36751,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:01:04</t>
-        </is>
+      <c r="H517" s="1" t="n">
+        <v>44392.54240740741</v>
       </c>
       <c r="I517" t="n">
         <v>1</v>
@@ -37836,10 +36820,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:00:55</t>
-        </is>
+      <c r="H518" s="1" t="n">
+        <v>44392.54230324074</v>
       </c>
       <c r="I518" t="n">
         <v>2</v>
@@ -37907,10 +36889,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:00:54</t>
-        </is>
+      <c r="H519" s="1" t="n">
+        <v>44392.54229166666</v>
       </c>
       <c r="I519" t="n">
         <v>0</v>
@@ -37986,10 +36966,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:00:54</t>
-        </is>
+      <c r="H520" s="1" t="n">
+        <v>44392.54229166666</v>
       </c>
       <c r="I520" t="n">
         <v>6</v>
